--- a/Data/Markerless/Method10/Summary.xlsx
+++ b/Data/Markerless/Method10/Summary.xlsx
@@ -165,7 +165,6 @@
     </font>
     <font>
       <sz val="7.500000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -177,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -201,10 +200,10 @@
     <border>
       <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -227,13 +226,13 @@
     <border>
       <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -251,7 +250,7 @@
     <border>
       <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="none"/>
@@ -288,11 +287,11 @@
     <border>
       <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -306,30 +305,10 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right style="none"/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -357,34 +336,10 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="none"/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right style="none"/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -452,46 +407,46 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,11 +1052,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="14.28515625"/>
     <col bestFit="1" customWidth="1" min="3" max="12" width="13.5703125"/>
@@ -1217,13 +1172,27 @@
       <c r="B6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
+      <c r="C6" s="13">
+        <v>100</v>
+      </c>
+      <c r="D6" s="14">
+        <v>100</v>
+      </c>
+      <c r="E6" s="13">
+        <v>100</v>
+      </c>
+      <c r="F6" s="14">
+        <v>100</v>
+      </c>
+      <c r="G6" s="13">
+        <v>100</v>
+      </c>
+      <c r="H6" s="14">
+        <v>100</v>
+      </c>
+      <c r="I6" s="13">
+        <v>42.799999999999997</v>
+      </c>
       <c r="J6" s="14">
         <v>0</v>
       </c>
@@ -1239,13 +1208,27 @@
       <c r="B7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
+      <c r="C7" s="13">
+        <v>100</v>
+      </c>
+      <c r="D7" s="14">
+        <v>100</v>
+      </c>
+      <c r="E7" s="13">
+        <v>100</v>
+      </c>
+      <c r="F7" s="14">
+        <v>100</v>
+      </c>
+      <c r="G7" s="13">
+        <v>100</v>
+      </c>
+      <c r="H7" s="14">
+        <v>100</v>
+      </c>
+      <c r="I7" s="13">
+        <v>42.799999999999997</v>
+      </c>
       <c r="J7" s="14">
         <v>0</v>
       </c>
@@ -1261,13 +1244,27 @@
       <c r="B8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
+      <c r="C8" s="13">
+        <v>100</v>
+      </c>
+      <c r="D8" s="14">
+        <v>100</v>
+      </c>
+      <c r="E8" s="13">
+        <v>100</v>
+      </c>
+      <c r="F8" s="14">
+        <v>100</v>
+      </c>
+      <c r="G8" s="13">
+        <v>100</v>
+      </c>
+      <c r="H8" s="14">
+        <v>100</v>
+      </c>
+      <c r="I8" s="13">
+        <v>42.799999999999997</v>
+      </c>
       <c r="J8" s="14">
         <v>0</v>
       </c>
@@ -1283,13 +1280,27 @@
       <c r="B9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
+      <c r="C9" s="13">
+        <v>100</v>
+      </c>
+      <c r="D9" s="14">
+        <v>100</v>
+      </c>
+      <c r="E9" s="13">
+        <v>100</v>
+      </c>
+      <c r="F9" s="14">
+        <v>100</v>
+      </c>
+      <c r="G9" s="13">
+        <v>100</v>
+      </c>
+      <c r="H9" s="14">
+        <v>100</v>
+      </c>
+      <c r="I9" s="13">
+        <v>42.799999999999997</v>
+      </c>
       <c r="J9" s="14">
         <v>0</v>
       </c>
@@ -1305,13 +1316,27 @@
       <c r="B10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
+      <c r="C10" s="13">
+        <v>100</v>
+      </c>
+      <c r="D10" s="14">
+        <v>100</v>
+      </c>
+      <c r="E10" s="13">
+        <v>100</v>
+      </c>
+      <c r="F10" s="14">
+        <v>100</v>
+      </c>
+      <c r="G10" s="13">
+        <v>100</v>
+      </c>
+      <c r="H10" s="14">
+        <v>100</v>
+      </c>
+      <c r="I10" s="13">
+        <v>42.799999999999997</v>
+      </c>
       <c r="J10" s="14">
         <v>0</v>
       </c>
@@ -1327,13 +1352,27 @@
       <c r="B11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
+      <c r="C11" s="13">
+        <v>100</v>
+      </c>
+      <c r="D11" s="14">
+        <v>100</v>
+      </c>
+      <c r="E11" s="13">
+        <v>100</v>
+      </c>
+      <c r="F11" s="14">
+        <v>100</v>
+      </c>
+      <c r="G11" s="13">
+        <v>100</v>
+      </c>
+      <c r="H11" s="14">
+        <v>100</v>
+      </c>
+      <c r="I11" s="13">
+        <v>42.799999999999997</v>
+      </c>
       <c r="J11" s="14">
         <v>0</v>
       </c>
@@ -1349,13 +1388,27 @@
       <c r="B12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
+      <c r="C12" s="13">
+        <v>100</v>
+      </c>
+      <c r="D12" s="14">
+        <v>100</v>
+      </c>
+      <c r="E12" s="13">
+        <v>100</v>
+      </c>
+      <c r="F12" s="14">
+        <v>100</v>
+      </c>
+      <c r="G12" s="13">
+        <v>100</v>
+      </c>
+      <c r="H12" s="14">
+        <v>100</v>
+      </c>
+      <c r="I12" s="13">
+        <v>42.799999999999997</v>
+      </c>
       <c r="J12" s="14">
         <v>0</v>
       </c>
@@ -1371,13 +1424,27 @@
       <c r="B13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="13">
+        <v>100</v>
+      </c>
+      <c r="D13" s="14">
+        <v>100</v>
+      </c>
+      <c r="E13" s="13">
+        <v>100</v>
+      </c>
+      <c r="F13" s="14">
+        <v>100</v>
+      </c>
+      <c r="G13" s="13">
+        <v>100</v>
+      </c>
+      <c r="H13" s="14">
+        <v>100</v>
+      </c>
+      <c r="I13" s="13">
+        <v>42.799999999999997</v>
+      </c>
       <c r="J13" s="14">
         <v>0</v>
       </c>
@@ -1393,13 +1460,27 @@
       <c r="B14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
+      <c r="C14" s="13">
+        <v>100</v>
+      </c>
+      <c r="D14" s="14">
+        <v>100</v>
+      </c>
+      <c r="E14" s="13">
+        <v>100</v>
+      </c>
+      <c r="F14" s="14">
+        <v>100</v>
+      </c>
+      <c r="G14" s="13">
+        <v>100</v>
+      </c>
+      <c r="H14" s="14">
+        <v>100</v>
+      </c>
+      <c r="I14" s="13">
+        <v>42.799999999999997</v>
+      </c>
       <c r="J14" s="14">
         <v>0</v>
       </c>
@@ -1415,13 +1496,27 @@
       <c r="B15" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
+      <c r="C15" s="18">
+        <v>100</v>
+      </c>
+      <c r="D15" s="19">
+        <v>100</v>
+      </c>
+      <c r="E15" s="18">
+        <v>100</v>
+      </c>
+      <c r="F15" s="19">
+        <v>100</v>
+      </c>
+      <c r="G15" s="18">
+        <v>100</v>
+      </c>
+      <c r="H15" s="19">
+        <v>100</v>
+      </c>
+      <c r="I15" s="18">
+        <v>42.799999999999997</v>
+      </c>
       <c r="J15" s="19">
         <v>0</v>
       </c>
@@ -1467,13 +1562,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A15"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -1482,7 +1577,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00B70057-00F3-4EF8-AC7C-008A00210016}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00260097-00B0-421B-8894-00820047003F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>"yes, no"</xm:f>
           </x14:formula1>
